--- a/InterviewTest/output/data-source.xlsx
+++ b/InterviewTest/output/data-source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DECD3-5952-40EF-9A7E-54F6E1B00339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4783CDF4-83DF-4800-B064-4F3A5C766F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6CF17F0-1ECA-4938-87C6-15A0275DAB06}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{6ACC66F4-46AA-4686-A471-218CC8CF7089}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,17 +467,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79044362-CD7E-4122-A6FC-0D1C7068FDAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F93D23D-E5F4-48BA-AEAA-DA29C65AA7CE}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
